--- a/nvidia.xlsx
+++ b/nvidia.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="66">
   <si>
     <t>Nvidia</t>
   </si>
@@ -55,13 +55,172 @@
     <t>Código do produto:</t>
   </si>
   <si>
-    <t>3a3a</t>
+    <t>BU9UB79FH2</t>
   </si>
   <si>
     <t>Date:</t>
   </si>
   <si>
-    <t>0505</t>
+    <t>12/01/2018</t>
+  </si>
+  <si>
+    <t>GTX 960</t>
+  </si>
+  <si>
+    <t>200.00 R$</t>
+  </si>
+  <si>
+    <t>300.00 R$</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>HARDWARE</t>
+  </si>
+  <si>
+    <t>GTX 970</t>
+  </si>
+  <si>
+    <t>400.00 R$</t>
+  </si>
+  <si>
+    <t>600.00 R$</t>
+  </si>
+  <si>
+    <t>GTX 980</t>
+  </si>
+  <si>
+    <t>450.00 R$</t>
+  </si>
+  <si>
+    <t>700.00 R$</t>
+  </si>
+  <si>
+    <t>GTX 1060</t>
+  </si>
+  <si>
+    <t>500.00 R$</t>
+  </si>
+  <si>
+    <t>GTX 1070</t>
+  </si>
+  <si>
+    <t>800.00 R$</t>
+  </si>
+  <si>
+    <t>GTX 1080</t>
+  </si>
+  <si>
+    <t>900.00 R$</t>
+  </si>
+  <si>
+    <t>1000.00 R$</t>
+  </si>
+  <si>
+    <t>GTX 1080 TI</t>
+  </si>
+  <si>
+    <t>1200.00 R$</t>
+  </si>
+  <si>
+    <t>1500.00 R$</t>
+  </si>
+  <si>
+    <t>RTX 2060</t>
+  </si>
+  <si>
+    <t>RTX 2060 SUPER</t>
+  </si>
+  <si>
+    <t>1700.00 R$</t>
+  </si>
+  <si>
+    <t>RTX 2070</t>
+  </si>
+  <si>
+    <t>1900.00 R$</t>
+  </si>
+  <si>
+    <t>RTX 2080</t>
+  </si>
+  <si>
+    <t>2300.00 R$</t>
+  </si>
+  <si>
+    <t>RTX 2080 TI</t>
+  </si>
+  <si>
+    <t>1300.00 R$</t>
+  </si>
+  <si>
+    <t>2500.00 R$</t>
+  </si>
+  <si>
+    <t>PDZ0TLMOF3</t>
+  </si>
+  <si>
+    <t>12/02/2018</t>
+  </si>
+  <si>
+    <t>FI1HC958P9</t>
+  </si>
+  <si>
+    <t>12/03/2018</t>
+  </si>
+  <si>
+    <t>9PGR7GQTKK</t>
+  </si>
+  <si>
+    <t>12/04/2018</t>
+  </si>
+  <si>
+    <t>8Z6T8EDIQ8</t>
+  </si>
+  <si>
+    <t>12/05/2018</t>
+  </si>
+  <si>
+    <t>FUCQO7QP61</t>
+  </si>
+  <si>
+    <t>12/06/2018</t>
+  </si>
+  <si>
+    <t>OTH2LBP0L8</t>
+  </si>
+  <si>
+    <t>12/07/2018</t>
+  </si>
+  <si>
+    <t>J779IXYTP1</t>
+  </si>
+  <si>
+    <t>12/08/2018</t>
+  </si>
+  <si>
+    <t>05RI9KN4CW</t>
+  </si>
+  <si>
+    <t>12/09/2018</t>
+  </si>
+  <si>
+    <t>F2OHYJ506I</t>
+  </si>
+  <si>
+    <t>12/10/2018</t>
+  </si>
+  <si>
+    <t>KROSE65DQI</t>
+  </si>
+  <si>
+    <t>12/11/2018</t>
+  </si>
+  <si>
+    <t>O1YKKNIWBC</t>
+  </si>
+  <si>
+    <t>12/12/2018</t>
   </si>
 </sst>
 </file>
@@ -69,7 +228,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="61">
+  <fonts count="301">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -84,6 +243,46 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="13.0"/>
       <color indexed="9"/>
     </font>
@@ -104,11 +303,111 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="30.0"/>
       <color indexed="8"/>
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="13.0"/>
       <color indexed="9"/>
     </font>
@@ -129,11 +428,111 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="30.0"/>
       <color indexed="8"/>
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="13.0"/>
       <color indexed="9"/>
     </font>
@@ -154,11 +553,111 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="30.0"/>
       <color indexed="8"/>
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="13.0"/>
       <color indexed="9"/>
     </font>
@@ -179,11 +678,111 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="30.0"/>
       <color indexed="8"/>
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="13.0"/>
       <color indexed="9"/>
     </font>
@@ -204,11 +803,111 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="30.0"/>
       <color indexed="8"/>
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="13.0"/>
       <color indexed="9"/>
     </font>
@@ -229,11 +928,111 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="30.0"/>
       <color indexed="8"/>
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="13.0"/>
       <color indexed="9"/>
     </font>
@@ -254,11 +1053,111 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="30.0"/>
       <color indexed="8"/>
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="13.0"/>
       <color indexed="9"/>
     </font>
@@ -279,11 +1178,111 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="30.0"/>
       <color indexed="8"/>
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="13.0"/>
       <color indexed="9"/>
     </font>
@@ -304,11 +1303,111 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="30.0"/>
       <color indexed="8"/>
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="13.0"/>
       <color indexed="9"/>
     </font>
@@ -329,11 +1428,111 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="30.0"/>
       <color indexed="8"/>
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="13.0"/>
       <color indexed="9"/>
     </font>
@@ -354,11 +1553,111 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="30.0"/>
       <color indexed="8"/>
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="8"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="13.0"/>
       <color indexed="9"/>
     </font>
@@ -375,6 +1674,66 @@
     <font>
       <name val="Calibri"/>
       <sz val="13.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="9"/>
     </font>
   </fonts>
@@ -418,40 +1777,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="301">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyAlignment="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment horizontal="left"/>
@@ -459,74 +1802,34 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyAlignment="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment horizontal="left"/>
@@ -534,90 +1837,386 @@
     <xf numFmtId="0" fontId="38" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="0" xfId="0" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="0" xfId="0" applyAlignment="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="41" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="43" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="44" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="45" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="46" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="47" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="48" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="49" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="50" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="51" fillId="3" borderId="0" xfId="0" applyAlignment="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="52" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="53" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="54" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="55" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="56" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="57" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="58" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="59" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="60" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="61" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="62" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="63" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="3" borderId="0" xfId="0" applyAlignment="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="64" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="65" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="66" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="67" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="68" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="69" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="70" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="71" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="72" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="73" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="74" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="75" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="76" fillId="3" borderId="0" xfId="0" applyAlignment="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="77" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="78" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="79" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="80" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="81" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="82" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="83" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="84" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="85" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="86" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="87" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="88" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="89" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="90" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="91" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="92" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="93" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="94" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="95" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="96" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="97" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="98" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="99" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="100" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="101" fillId="3" borderId="0" xfId="0" applyAlignment="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="103" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="104" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="105" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="106" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="107" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="108" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="109" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="110" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="115" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="116" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="117" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="118" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="119" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="120" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="121" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="122" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="123" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="124" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="125" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="126" fillId="3" borderId="0" xfId="0" applyAlignment="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="128" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="129" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="130" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="131" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="132" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="133" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="134" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="135" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="140" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="141" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="142" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="143" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="144" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="145" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="146" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="147" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="148" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="149" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="150" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="151" fillId="3" borderId="0" xfId="0" applyAlignment="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="153" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="154" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="155" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="156" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="157" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="158" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="159" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="160" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="165" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="166" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="167" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="168" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="169" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="170" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="171" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="172" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="173" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="174" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="175" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="176" fillId="3" borderId="0" xfId="0" applyAlignment="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="178" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="179" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="180" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="181" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="182" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="183" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="184" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="185" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="190" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="191" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="192" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="193" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="194" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="195" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="196" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="197" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="198" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="199" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="200" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="201" fillId="3" borderId="0" xfId="0" applyAlignment="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="203" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="204" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="205" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="206" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="207" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="208" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="209" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="210" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="215" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="216" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="217" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="218" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="219" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="220" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="221" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="222" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="223" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="224" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="225" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="226" fillId="3" borderId="0" xfId="0" applyAlignment="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="228" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="229" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="230" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="231" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="232" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="233" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="234" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="235" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="240" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="241" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="242" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="243" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="244" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="245" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="246" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="247" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="248" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="249" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="250" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="251" fillId="3" borderId="0" xfId="0" applyAlignment="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="253" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="254" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="255" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="256" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="257" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="258" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="259" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="260" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="265" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="266" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="267" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="268" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="269" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="270" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="271" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="272" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="273" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="274" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="275" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="276" fillId="3" borderId="0" xfId="0" applyAlignment="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="278" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="279" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="280" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="281" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="282" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="283" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="284" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="285" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="5" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="290" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="291" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="292" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="293" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="294" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="295" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="296" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="297" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="298" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="299" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="300" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:H5"/>
+  <dimension ref="A2:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="21.76953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="6.125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="6.125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.08984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.08984375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="15.5" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="13.109375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.7265625" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="17.828125" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.5859375" customWidth="true" bestFit="true"/>
   </cols>
@@ -628,45 +2227,357 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="10">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="11">
         <v>10</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="4">
+      <c r="A4" t="s" s="12">
         <v>11</v>
       </c>
-      <c r="B4" t="s" s="5">
+      <c r="B4" t="s" s="25">
         <v>12</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="3">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="5">
         <v>4</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" t="s" s="8">
         <v>7</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" t="s" s="9">
         <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" t="n">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" t="n">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" t="n">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>
@@ -681,67 +2592,379 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:H5"/>
+  <dimension ref="A2:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="21.76953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="6.125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="6.125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.08984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.08984375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="15.5" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="13.109375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.7265625" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="17.828125" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.5859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="30.0" customHeight="true">
-      <c r="A2" t="s" s="46">
+      <c r="A2" t="s" s="226">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="47">
+      <c r="A3" t="s" s="235">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="48">
-        <v>10</v>
+      <c r="B3" t="s" s="236">
+        <v>60</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="49">
+      <c r="A4" t="s" s="237">
         <v>11</v>
       </c>
-      <c r="B4" t="s" s="50">
-        <v>12</v>
+      <c r="B4" t="s" s="250">
+        <v>61</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="227">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="228">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="229">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="230">
         <v>4</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="231">
         <v>5</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="232">
         <v>6</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" t="s" s="233">
         <v>7</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" t="s" s="234">
         <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" t="n">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" t="n">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17" t="n">
+        <v>9.0</v>
       </c>
     </row>
   </sheetData>
@@ -756,67 +2979,379 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:H5"/>
+  <dimension ref="A2:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="21.76953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="6.125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="6.125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.08984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.08984375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="15.5" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="13.109375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.7265625" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="17.828125" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.5859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="30.0" customHeight="true">
-      <c r="A2" t="s" s="51">
+      <c r="A2" t="s" s="251">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="52">
+      <c r="A3" t="s" s="260">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="53">
-        <v>10</v>
+      <c r="B3" t="s" s="261">
+        <v>62</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="54">
+      <c r="A4" t="s" s="262">
         <v>11</v>
       </c>
-      <c r="B4" t="s" s="55">
-        <v>12</v>
+      <c r="B4" t="s" s="275">
+        <v>63</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="252">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="253">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="254">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="255">
         <v>4</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="256">
         <v>5</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="257">
         <v>6</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" t="s" s="258">
         <v>7</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" t="s" s="259">
         <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" t="n">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9" t="n">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" t="n">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" t="n">
+        <v>10.0</v>
       </c>
     </row>
   </sheetData>
@@ -831,67 +3366,379 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:H5"/>
+  <dimension ref="A2:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="21.76953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="6.125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="6.125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.08984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.08984375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="15.5" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="13.109375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.7265625" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="17.828125" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.5859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="30.0" customHeight="true">
-      <c r="A2" t="s" s="56">
+      <c r="A2" t="s" s="276">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="57">
+      <c r="A3" t="s" s="285">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="58">
-        <v>10</v>
+      <c r="B3" t="s" s="286">
+        <v>64</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="59">
+      <c r="A4" t="s" s="287">
         <v>11</v>
       </c>
-      <c r="B4" t="s" s="60">
-        <v>12</v>
+      <c r="B4" t="s" s="300">
+        <v>65</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="277">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="278">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="279">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="280">
         <v>4</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="281">
         <v>5</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="282">
         <v>6</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" t="s" s="283">
         <v>7</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" t="s" s="284">
         <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" t="n">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" t="n">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" t="n">
+        <v>5.0</v>
       </c>
     </row>
   </sheetData>
@@ -906,67 +3753,379 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:H5"/>
+  <dimension ref="A2:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="21.76953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="6.125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="6.125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.08984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.08984375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="15.5" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="13.109375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.7265625" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="17.828125" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.5859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="30.0" customHeight="true">
-      <c r="A2" t="s" s="6">
+      <c r="A2" t="s" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="7">
+      <c r="A3" t="s" s="35">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="8">
-        <v>10</v>
+      <c r="B3" t="s" s="36">
+        <v>44</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="9">
+      <c r="A4" t="s" s="37">
         <v>11</v>
       </c>
-      <c r="B4" t="s" s="10">
-        <v>12</v>
+      <c r="B4" t="s" s="50">
+        <v>45</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="27">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="28">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="29">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="30">
         <v>4</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="31">
         <v>5</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="32">
         <v>6</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" t="s" s="33">
         <v>7</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" t="s" s="34">
         <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="n">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.0</v>
       </c>
     </row>
   </sheetData>
@@ -981,67 +4140,379 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:H5"/>
+  <dimension ref="A2:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="21.76953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="6.125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="6.125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.08984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.08984375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="15.5" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="13.109375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.7265625" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="17.828125" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.5859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="30.0" customHeight="true">
-      <c r="A2" t="s" s="11">
+      <c r="A2" t="s" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="12">
+      <c r="A3" t="s" s="60">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="13">
-        <v>10</v>
+      <c r="B3" t="s" s="61">
+        <v>46</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="14">
+      <c r="A4" t="s" s="62">
         <v>11</v>
       </c>
-      <c r="B4" t="s" s="15">
-        <v>12</v>
+      <c r="B4" t="s" s="75">
+        <v>47</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="52">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="53">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="54">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="55">
         <v>4</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="56">
         <v>5</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="57">
         <v>6</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" t="s" s="58">
         <v>7</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" t="s" s="59">
         <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="n">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="n">
+        <v>16.0</v>
       </c>
     </row>
   </sheetData>
@@ -1056,67 +4527,379 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:H5"/>
+  <dimension ref="A2:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="21.76953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="6.125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="6.125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.08984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.08984375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="15.5" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="13.109375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.7265625" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="17.828125" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.5859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="30.0" customHeight="true">
-      <c r="A2" t="s" s="16">
+      <c r="A2" t="s" s="76">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="17">
+      <c r="A3" t="s" s="85">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="18">
-        <v>10</v>
+      <c r="B3" t="s" s="86">
+        <v>48</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="19">
+      <c r="A4" t="s" s="87">
         <v>11</v>
       </c>
-      <c r="B4" t="s" s="20">
-        <v>12</v>
+      <c r="B4" t="s" s="100">
+        <v>49</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="77">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="78">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="79">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="80">
         <v>4</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="81">
         <v>5</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="82">
         <v>6</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" t="s" s="83">
         <v>7</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" t="s" s="84">
         <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" t="n">
+        <v>15.0</v>
       </c>
     </row>
   </sheetData>
@@ -1131,67 +4914,379 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:H5"/>
+  <dimension ref="A2:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="21.76953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="6.125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="6.125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.08984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.08984375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="15.5" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="13.109375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.7265625" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="17.828125" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.5859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="30.0" customHeight="true">
-      <c r="A2" t="s" s="21">
+      <c r="A2" t="s" s="101">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="22">
+      <c r="A3" t="s" s="110">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="23">
-        <v>10</v>
+      <c r="B3" t="s" s="111">
+        <v>50</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="24">
+      <c r="A4" t="s" s="112">
         <v>11</v>
       </c>
-      <c r="B4" t="s" s="25">
-        <v>12</v>
+      <c r="B4" t="s" s="125">
+        <v>51</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="102">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="103">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="104">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="105">
         <v>4</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="106">
         <v>5</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="107">
         <v>6</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" t="s" s="108">
         <v>7</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" t="s" s="109">
         <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" t="n">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" t="n">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>
@@ -1206,67 +5301,379 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:H5"/>
+  <dimension ref="A2:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="21.76953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="6.125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="6.125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.08984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.08984375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="15.5" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="13.109375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.7265625" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="17.828125" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.5859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="30.0" customHeight="true">
-      <c r="A2" t="s" s="26">
+      <c r="A2" t="s" s="126">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="27">
+      <c r="A3" t="s" s="135">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="28">
-        <v>10</v>
+      <c r="B3" t="s" s="136">
+        <v>52</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="29">
+      <c r="A4" t="s" s="137">
         <v>11</v>
       </c>
-      <c r="B4" t="s" s="30">
-        <v>12</v>
+      <c r="B4" t="s" s="150">
+        <v>53</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="127">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="128">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="129">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="130">
         <v>4</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="131">
         <v>5</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="132">
         <v>6</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" t="s" s="133">
         <v>7</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" t="s" s="134">
         <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" t="n">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" t="n">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" t="n">
+        <v>13.0</v>
       </c>
     </row>
   </sheetData>
@@ -1281,67 +5688,379 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:H5"/>
+  <dimension ref="A2:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="21.76953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="6.125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="6.125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.08984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.08984375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="15.5" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="13.109375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.7265625" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="17.828125" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.5859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="30.0" customHeight="true">
-      <c r="A2" t="s" s="31">
+      <c r="A2" t="s" s="151">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="32">
+      <c r="A3" t="s" s="160">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="33">
-        <v>10</v>
+      <c r="B3" t="s" s="161">
+        <v>54</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="34">
+      <c r="A4" t="s" s="162">
         <v>11</v>
       </c>
-      <c r="B4" t="s" s="35">
-        <v>12</v>
+      <c r="B4" t="s" s="175">
+        <v>55</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="152">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="153">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="154">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="155">
         <v>4</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="156">
         <v>5</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="157">
         <v>6</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" t="s" s="158">
         <v>7</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" t="s" s="159">
         <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" t="n">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" t="n">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" t="n">
+        <v>19.0</v>
       </c>
     </row>
   </sheetData>
@@ -1356,67 +6075,379 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:H5"/>
+  <dimension ref="A2:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="21.76953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="6.125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="6.125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.08984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.08984375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="15.5" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="13.109375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.7265625" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="17.828125" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.5859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="30.0" customHeight="true">
-      <c r="A2" t="s" s="36">
+      <c r="A2" t="s" s="176">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="37">
+      <c r="A3" t="s" s="185">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="38">
-        <v>10</v>
+      <c r="B3" t="s" s="186">
+        <v>56</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="39">
+      <c r="A4" t="s" s="187">
         <v>11</v>
       </c>
-      <c r="B4" t="s" s="40">
-        <v>12</v>
+      <c r="B4" t="s" s="200">
+        <v>57</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="177">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="178">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="179">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="180">
         <v>4</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="181">
         <v>5</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="182">
         <v>6</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" t="s" s="183">
         <v>7</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" t="s" s="184">
         <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" t="n">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" t="n">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" t="n">
+        <v>6.0</v>
       </c>
     </row>
   </sheetData>
@@ -1431,67 +6462,379 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:H5"/>
+  <dimension ref="A2:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="21.76953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="6.125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="6.125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.08984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.08984375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="15.5" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="13.109375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.7265625" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="17.828125" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.5859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="30.0" customHeight="true">
-      <c r="A2" t="s" s="41">
+      <c r="A2" t="s" s="201">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="42">
+      <c r="A3" t="s" s="210">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="43">
-        <v>10</v>
+      <c r="B3" t="s" s="211">
+        <v>58</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="44">
+      <c r="A4" t="s" s="212">
         <v>11</v>
       </c>
-      <c r="B4" t="s" s="45">
-        <v>12</v>
+      <c r="B4" t="s" s="225">
+        <v>59</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="202">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="203">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="204">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="205">
         <v>4</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="206">
         <v>5</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="207">
         <v>6</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" t="s" s="208">
         <v>7</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" t="s" s="209">
         <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" t="n">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" t="n">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" t="n">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" t="n">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" t="n">
+        <v>16.0</v>
       </c>
     </row>
   </sheetData>
